--- a/Input/560101.xlsx
+++ b/Input/560101.xlsx
@@ -12,50 +12,50 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$243</definedName>
-    <definedName name="A108268693J_Data">Data1!$I$11:$I$243</definedName>
-    <definedName name="A108268693J_Latest">Data1!$I$243</definedName>
-    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$243</definedName>
-    <definedName name="A108271213V_Data">Data1!$F$11:$F$243</definedName>
-    <definedName name="A108271213V_Latest">Data1!$F$243</definedName>
-    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108273775J_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108273775J_Latest">Data1!$J$243</definedName>
-    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$243</definedName>
-    <definedName name="A108276981A_Data">Data1!$D$11:$D$243</definedName>
-    <definedName name="A108276981A_Latest">Data1!$D$243</definedName>
-    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$243</definedName>
-    <definedName name="A108277457X_Data">Data1!$K$11:$K$243</definedName>
-    <definedName name="A108277457X_Latest">Data1!$K$243</definedName>
-    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$243</definedName>
-    <definedName name="A108284387K_Data">Data1!$N$11:$N$243</definedName>
-    <definedName name="A108284387K_Latest">Data1!$N$243</definedName>
-    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$243</definedName>
-    <definedName name="A108284569X_Data">Data1!$L$11:$L$243</definedName>
-    <definedName name="A108284569X_Latest">Data1!$L$243</definedName>
-    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$243</definedName>
-    <definedName name="A108292360K_Data">Data1!$O$11:$O$243</definedName>
-    <definedName name="A108292360K_Latest">Data1!$O$243</definedName>
-    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$243</definedName>
-    <definedName name="A108292822T_Data">Data1!$M$11:$M$243</definedName>
-    <definedName name="A108292822T_Latest">Data1!$M$243</definedName>
-    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294614K_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294614K_Latest">Data1!$G$243</definedName>
-    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$243</definedName>
-    <definedName name="A108295286C_Data">Data1!$B$11:$B$243</definedName>
-    <definedName name="A108295286C_Latest">Data1!$B$243</definedName>
-    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$243</definedName>
-    <definedName name="A108296973X_Data">Data1!$H$11:$H$243</definedName>
-    <definedName name="A108296973X_Latest">Data1!$H$243</definedName>
-    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$243</definedName>
-    <definedName name="A108299115J_Data">Data1!$C$11:$C$243</definedName>
-    <definedName name="A108299115J_Latest">Data1!$C$243</definedName>
-    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$243</definedName>
-    <definedName name="A108299885C_Data">Data1!$E$215:$E$243</definedName>
-    <definedName name="A108299885C_Latest">Data1!$E$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108268693J">Data1!$I$1:$I$10,Data1!$I$11:$I$245</definedName>
+    <definedName name="A108268693J_Data">Data1!$I$11:$I$245</definedName>
+    <definedName name="A108268693J_Latest">Data1!$I$245</definedName>
+    <definedName name="A108271213V">Data1!$F$1:$F$10,Data1!$F$11:$F$245</definedName>
+    <definedName name="A108271213V_Data">Data1!$F$11:$F$245</definedName>
+    <definedName name="A108271213V_Latest">Data1!$F$245</definedName>
+    <definedName name="A108273775J">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108273775J_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108273775J_Latest">Data1!$J$245</definedName>
+    <definedName name="A108276981A">Data1!$D$1:$D$10,Data1!$D$11:$D$245</definedName>
+    <definedName name="A108276981A_Data">Data1!$D$11:$D$245</definedName>
+    <definedName name="A108276981A_Latest">Data1!$D$245</definedName>
+    <definedName name="A108277457X">Data1!$K$1:$K$10,Data1!$K$11:$K$245</definedName>
+    <definedName name="A108277457X_Data">Data1!$K$11:$K$245</definedName>
+    <definedName name="A108277457X_Latest">Data1!$K$245</definedName>
+    <definedName name="A108284387K">Data1!$N$1:$N$10,Data1!$N$11:$N$245</definedName>
+    <definedName name="A108284387K_Data">Data1!$N$11:$N$245</definedName>
+    <definedName name="A108284387K_Latest">Data1!$N$245</definedName>
+    <definedName name="A108284569X">Data1!$L$1:$L$10,Data1!$L$11:$L$245</definedName>
+    <definedName name="A108284569X_Data">Data1!$L$11:$L$245</definedName>
+    <definedName name="A108284569X_Latest">Data1!$L$245</definedName>
+    <definedName name="A108292360K">Data1!$O$1:$O$10,Data1!$O$11:$O$245</definedName>
+    <definedName name="A108292360K_Data">Data1!$O$11:$O$245</definedName>
+    <definedName name="A108292360K_Latest">Data1!$O$245</definedName>
+    <definedName name="A108292822T">Data1!$M$1:$M$10,Data1!$M$11:$M$245</definedName>
+    <definedName name="A108292822T_Data">Data1!$M$11:$M$245</definedName>
+    <definedName name="A108292822T_Latest">Data1!$M$245</definedName>
+    <definedName name="A108294614K">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294614K_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294614K_Latest">Data1!$G$245</definedName>
+    <definedName name="A108295286C">Data1!$B$1:$B$10,Data1!$B$11:$B$245</definedName>
+    <definedName name="A108295286C_Data">Data1!$B$11:$B$245</definedName>
+    <definedName name="A108295286C_Latest">Data1!$B$245</definedName>
+    <definedName name="A108296973X">Data1!$H$1:$H$10,Data1!$H$11:$H$245</definedName>
+    <definedName name="A108296973X_Data">Data1!$H$11:$H$245</definedName>
+    <definedName name="A108296973X_Latest">Data1!$H$245</definedName>
+    <definedName name="A108299115J">Data1!$C$1:$C$10,Data1!$C$11:$C$245</definedName>
+    <definedName name="A108299115J_Data">Data1!$C$11:$C$245</definedName>
+    <definedName name="A108299115J_Latest">Data1!$C$245</definedName>
+    <definedName name="A108299885C">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
+    <definedName name="A108299885C_Data">Data1!$E$215:$E$245</definedName>
+    <definedName name="A108299885C_Latest">Data1!$E$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -12209,6 +12209,110 @@
       </text>
     </comment>
     <comment ref="O243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12360,7 +12464,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -13060,10 +13164,10 @@
         <v>37438</v>
       </c>
       <c r="G12" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -13092,10 +13196,10 @@
         <v>37438</v>
       </c>
       <c r="G13" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -13124,10 +13228,10 @@
         <v>37438</v>
       </c>
       <c r="G14" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -13156,10 +13260,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -13188,10 +13292,10 @@
         <v>37438</v>
       </c>
       <c r="G16" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -13220,10 +13324,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -13252,10 +13356,10 @@
         <v>37438</v>
       </c>
       <c r="G18" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -13284,10 +13388,10 @@
         <v>37438</v>
       </c>
       <c r="G19" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -13316,10 +13420,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -13348,10 +13452,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -13380,10 +13484,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -13412,10 +13516,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -13444,10 +13548,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -13476,10 +13580,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="9">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="10">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -13528,7 +13632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O243"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -13873,46 +13977,46 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -13920,46 +14024,46 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -21871,6 +21975,84 @@
       <c r="M243" s="8"/>
       <c r="N243" s="8"/>
       <c r="O243" s="8"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A244" s="9">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>36476.5</v>
+      </c>
+      <c r="C244" s="8">
+        <v>24914</v>
+      </c>
+      <c r="D244" s="8">
+        <v>11562.5</v>
+      </c>
+      <c r="E244" s="8">
+        <v>6847.9</v>
+      </c>
+      <c r="F244" s="8">
+        <v>6261.2</v>
+      </c>
+      <c r="G244" s="8">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="H244" s="8">
+        <v>32812</v>
+      </c>
+      <c r="I244" s="8">
+        <v>22471.3</v>
+      </c>
+      <c r="J244" s="8">
+        <v>10340.700000000001</v>
+      </c>
+      <c r="K244" s="8">
+        <v>5666.2</v>
+      </c>
+      <c r="L244" s="8"/>
+      <c r="M244" s="8"/>
+      <c r="N244" s="8"/>
+      <c r="O244" s="8"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A245" s="9">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>28281.5</v>
+      </c>
+      <c r="C245" s="8">
+        <v>19169.3</v>
+      </c>
+      <c r="D245" s="8">
+        <v>9112.2000000000007</v>
+      </c>
+      <c r="E245" s="8">
+        <v>4886.1000000000004</v>
+      </c>
+      <c r="F245" s="8">
+        <v>4507.8999999999996</v>
+      </c>
+      <c r="G245" s="8">
+        <v>378.2</v>
+      </c>
+      <c r="H245" s="8">
+        <v>33660</v>
+      </c>
+      <c r="I245" s="8">
+        <v>22686</v>
+      </c>
+      <c r="J245" s="8">
+        <v>10974</v>
+      </c>
+      <c r="K245" s="8">
+        <v>5385.3</v>
+      </c>
+      <c r="L245" s="8"/>
+      <c r="M245" s="8"/>
+      <c r="N245" s="8"/>
+      <c r="O245" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
